--- a/Code/Results/Cases/Case_4_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.9486786320745</v>
+        <v>11.7006386158531</v>
       </c>
       <c r="C2">
-        <v>6.783044461619961</v>
+        <v>8.340294232042817</v>
       </c>
       <c r="D2">
-        <v>7.108739831732462</v>
+        <v>5.9891267849217</v>
       </c>
       <c r="E2">
-        <v>7.809531927805578</v>
+        <v>11.75745654196906</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.99003785011976</v>
+        <v>30.87871174095526</v>
       </c>
       <c r="H2">
-        <v>9.030492552567424</v>
+        <v>14.8735168670438</v>
       </c>
       <c r="I2">
-        <v>14.5134897197064</v>
+        <v>23.19094960242855</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.48208789531316</v>
+        <v>8.986505646251979</v>
       </c>
       <c r="L2">
-        <v>6.874519932225155</v>
+        <v>9.702830934424288</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.20872152626022</v>
+        <v>18.84576132690876</v>
       </c>
       <c r="O2">
-        <v>14.82098946971423</v>
+        <v>22.91385794775655</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.01632587109582</v>
+        <v>11.43091471675098</v>
       </c>
       <c r="C3">
-        <v>6.692581239401044</v>
+        <v>8.315197352539222</v>
       </c>
       <c r="D3">
-        <v>6.621361628565056</v>
+        <v>5.870759932971582</v>
       </c>
       <c r="E3">
-        <v>7.685105186752068</v>
+        <v>11.76739344145968</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.60610465617145</v>
+        <v>30.92296222525393</v>
       </c>
       <c r="H3">
-        <v>9.0688774465393</v>
+        <v>14.91498636462818</v>
       </c>
       <c r="I3">
-        <v>14.5958669839234</v>
+        <v>23.26881224354763</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.83062305609438</v>
+        <v>8.794213910399924</v>
       </c>
       <c r="L3">
-        <v>6.664513813049144</v>
+        <v>9.687258614054372</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.38993097670699</v>
+        <v>18.90125447841793</v>
       </c>
       <c r="O3">
-        <v>14.78797661602005</v>
+        <v>22.97633073891756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.40956692085667</v>
+        <v>11.26397855627403</v>
       </c>
       <c r="C4">
-        <v>6.636475110123333</v>
+        <v>8.299657318748668</v>
       </c>
       <c r="D4">
-        <v>6.304884568652477</v>
+        <v>5.798584840299852</v>
       </c>
       <c r="E4">
-        <v>7.612279057372236</v>
+        <v>11.77559790420314</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.39054677935124</v>
+        <v>30.95885408212909</v>
       </c>
       <c r="H4">
-        <v>9.09760170185046</v>
+        <v>14.94261315025032</v>
       </c>
       <c r="I4">
-        <v>14.65657382454377</v>
+        <v>23.32064544615681</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.40958973275431</v>
+        <v>8.675281148054639</v>
       </c>
       <c r="L4">
-        <v>6.535560198848582</v>
+        <v>9.67935985169875</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.50385231992696</v>
+        <v>18.93694398931173</v>
       </c>
       <c r="O4">
-        <v>14.77902683048942</v>
+        <v>23.01912160866911</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.15364239151742</v>
+        <v>11.19571755271736</v>
       </c>
       <c r="C5">
-        <v>6.613481709140707</v>
+        <v>8.293293340688134</v>
       </c>
       <c r="D5">
-        <v>6.18821363151911</v>
+        <v>5.769345170151404</v>
       </c>
       <c r="E5">
-        <v>7.5835201806615</v>
+        <v>11.77947054632231</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.30775248012729</v>
+        <v>30.97566849174305</v>
       </c>
       <c r="H5">
-        <v>9.110563574624619</v>
+        <v>14.95441562731341</v>
       </c>
       <c r="I5">
-        <v>14.68376660794722</v>
+        <v>23.34277950874846</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.23278102689677</v>
+        <v>8.626664851358299</v>
       </c>
       <c r="L5">
-        <v>6.483084931414986</v>
+        <v>9.676561880412844</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.55096088485945</v>
+        <v>18.95189539108377</v>
       </c>
       <c r="O5">
-        <v>14.77813777189523</v>
+        <v>23.03767232831805</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.11062172338279</v>
+        <v>11.18437177540368</v>
       </c>
       <c r="C6">
-        <v>6.60965618051862</v>
+        <v>8.292234761217152</v>
       </c>
       <c r="D6">
-        <v>6.169225172220351</v>
+        <v>5.764501699471739</v>
       </c>
       <c r="E6">
-        <v>7.578800793229183</v>
+        <v>11.78014556998212</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.2943082044797</v>
+        <v>30.97859250656786</v>
       </c>
       <c r="H6">
-        <v>9.112790624961574</v>
+        <v>14.95640829899304</v>
       </c>
       <c r="I6">
-        <v>14.68842753409895</v>
+        <v>23.34651593520854</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.2031078561258</v>
+        <v>8.618585086028379</v>
       </c>
       <c r="L6">
-        <v>6.474378261466193</v>
+        <v>9.676122771322586</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.558825045911</v>
+        <v>18.95440271423846</v>
       </c>
       <c r="O6">
-        <v>14.77815408536216</v>
+        <v>23.04081984482998</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.40615057482392</v>
+        <v>11.26305877380682</v>
       </c>
       <c r="C7">
-        <v>6.636165522832171</v>
+        <v>8.299571616607988</v>
       </c>
       <c r="D7">
-        <v>6.303104174046966</v>
+        <v>5.798189745405089</v>
       </c>
       <c r="E7">
-        <v>7.611887462064927</v>
+        <v>11.77564798865148</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.38940980075721</v>
+        <v>30.95907199462999</v>
       </c>
       <c r="H7">
-        <v>9.097771474683643</v>
+        <v>14.94277011846209</v>
       </c>
       <c r="I7">
-        <v>14.65693073865017</v>
+        <v>23.32093985864259</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.40722633812475</v>
+        <v>8.674626009516222</v>
       </c>
       <c r="L7">
-        <v>6.53485209370333</v>
+        <v>9.679320409916329</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.50448484903883</v>
+        <v>18.93714397710656</v>
       </c>
       <c r="O7">
-        <v>14.77900379193841</v>
+        <v>23.01936728529083</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.63429437443738</v>
+        <v>11.60797147523968</v>
       </c>
       <c r="C8">
-        <v>6.751975996250202</v>
+        <v>8.331668811230553</v>
       </c>
       <c r="D8">
-        <v>6.944250084078236</v>
+        <v>5.948236916065658</v>
       </c>
       <c r="E8">
-        <v>7.765900904498143</v>
+        <v>11.76044655623731</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.85345967319213</v>
+        <v>30.89215637659805</v>
       </c>
       <c r="H8">
-        <v>9.042633232811493</v>
+        <v>14.88736639969891</v>
       </c>
       <c r="I8">
-        <v>14.53973528441051</v>
+        <v>23.21696087157572</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.2618554909541</v>
+        <v>8.920422599266638</v>
       </c>
       <c r="L8">
-        <v>6.802156368056339</v>
+        <v>9.697118230639921</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.27066090763579</v>
+        <v>18.86456056176256</v>
       </c>
       <c r="O8">
-        <v>14.80720473501478</v>
+        <v>22.93447779526555</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.7725778088137</v>
+        <v>12.26965339889408</v>
       </c>
       <c r="C9">
-        <v>6.974148986162995</v>
+        <v>8.393510830486179</v>
       </c>
       <c r="D9">
-        <v>8.066129235948951</v>
+        <v>6.244488320291051</v>
       </c>
       <c r="E9">
-        <v>8.095281751390779</v>
+        <v>11.74730142001939</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>23.92381251034159</v>
+        <v>30.83031891511558</v>
       </c>
       <c r="H9">
-        <v>8.977256685438297</v>
+        <v>14.79588863267688</v>
       </c>
       <c r="I9">
-        <v>14.39452480608406</v>
+        <v>23.04502154973446</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.76929590600809</v>
+        <v>9.392735119657925</v>
       </c>
       <c r="L9">
-        <v>7.323136883539148</v>
+        <v>9.745080545691508</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.83244685646775</v>
+        <v>18.73499720461352</v>
       </c>
       <c r="O9">
-        <v>14.9561312327681</v>
+        <v>22.80323985687293</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.18172054054122</v>
+        <v>12.7415714852155</v>
       </c>
       <c r="C10">
-        <v>7.133780075226757</v>
+        <v>8.438189153087565</v>
       </c>
       <c r="D10">
-        <v>8.809610159302274</v>
+        <v>6.460801144082301</v>
       </c>
       <c r="E10">
-        <v>8.352542793741359</v>
+        <v>11.74776429599195</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.80717559546366</v>
+        <v>30.82736509242218</v>
       </c>
       <c r="H10">
-        <v>8.957884210882995</v>
+        <v>14.73914027173402</v>
       </c>
       <c r="I10">
-        <v>14.34543010503274</v>
+        <v>22.93821654930768</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.77284027956087</v>
+        <v>9.730242655210217</v>
       </c>
       <c r="L10">
-        <v>7.700146677360332</v>
+        <v>9.788086931486466</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.52173659844267</v>
+        <v>18.64751715365927</v>
       </c>
       <c r="O10">
-        <v>15.12757374271054</v>
+        <v>22.72837574286922</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.78825424735853</v>
+        <v>12.95216331032422</v>
       </c>
       <c r="C11">
-        <v>7.205506543619681</v>
+        <v>8.458331620281868</v>
       </c>
       <c r="D11">
-        <v>9.130696432183589</v>
+        <v>6.558404039975946</v>
       </c>
       <c r="E11">
-        <v>8.472575894764271</v>
+        <v>11.75016076903521</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.22966636631189</v>
+        <v>30.8352597689276</v>
       </c>
       <c r="H11">
-        <v>8.95587389794883</v>
+        <v>14.71559394584745</v>
       </c>
       <c r="I11">
-        <v>14.33693926093185</v>
+        <v>22.89387350042121</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.20673942945635</v>
+        <v>9.881025289515051</v>
       </c>
       <c r="L11">
-        <v>7.869725104732705</v>
+        <v>9.809291359814043</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.38256461828073</v>
+        <v>18.6093781367258</v>
       </c>
       <c r="O11">
-        <v>15.22001389237905</v>
+        <v>22.69901351019997</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.01302406197561</v>
+        <v>13.03124498814834</v>
       </c>
       <c r="C12">
-        <v>7.232530895690371</v>
+        <v>8.465931249087234</v>
       </c>
       <c r="D12">
-        <v>9.249853227526723</v>
+        <v>6.595208915411497</v>
       </c>
       <c r="E12">
-        <v>8.51843458795498</v>
+        <v>11.75138126735626</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.39257195637349</v>
+        <v>30.83957686900298</v>
       </c>
       <c r="H12">
-        <v>8.956139852097293</v>
+        <v>14.70700371862657</v>
       </c>
       <c r="I12">
-        <v>14.33582735348319</v>
+        <v>22.87769270826325</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.36779714946494</v>
+        <v>9.937673932358209</v>
       </c>
       <c r="L12">
-        <v>7.933614623937377</v>
+        <v>9.817552390301119</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.33015351248148</v>
+        <v>18.59517283211611</v>
       </c>
       <c r="O12">
-        <v>15.2571704134356</v>
+        <v>22.68857074954945</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.96483350609849</v>
+        <v>13.01424407368958</v>
       </c>
       <c r="C13">
-        <v>7.226716938375189</v>
+        <v>8.464295800872989</v>
       </c>
       <c r="D13">
-        <v>9.22429831974298</v>
+        <v>6.587289848848369</v>
       </c>
       <c r="E13">
-        <v>8.508540519966795</v>
+        <v>11.75110451323655</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.35735841983942</v>
+        <v>30.83858808863118</v>
       </c>
       <c r="H13">
-        <v>8.956036096878348</v>
+        <v>14.70883926747439</v>
       </c>
       <c r="I13">
-        <v>14.33597145960312</v>
+        <v>22.88115034618544</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.33325495324551</v>
+        <v>9.925494441856474</v>
       </c>
       <c r="L13">
-        <v>7.919870095188271</v>
+        <v>9.815763014353433</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.34142863305664</v>
+        <v>18.59822166925405</v>
       </c>
       <c r="O13">
-        <v>15.24907128098535</v>
+        <v>22.6907896999118</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.8068443428613</v>
+        <v>12.95868315485247</v>
       </c>
       <c r="C14">
-        <v>7.207732644682165</v>
+        <v>8.458957415116373</v>
       </c>
       <c r="D14">
-        <v>9.140548084635515</v>
+        <v>6.561435333179856</v>
       </c>
       <c r="E14">
-        <v>8.476340757839044</v>
+        <v>11.75025491530291</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.2430105427538</v>
+        <v>30.8355883427932</v>
       </c>
       <c r="H14">
-        <v>8.955874906744972</v>
+        <v>14.71488068404156</v>
       </c>
       <c r="I14">
-        <v>14.3368049763339</v>
+        <v>22.89253004784301</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.22005485495295</v>
+        <v>9.885695110766934</v>
       </c>
       <c r="L14">
-        <v>7.874988130042769</v>
+        <v>9.809966389664657</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.37824703701149</v>
+        <v>18.60820471152955</v>
       </c>
       <c r="O14">
-        <v>15.22302725780073</v>
+        <v>22.69814082249752</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.70943328170291</v>
+        <v>12.92456170592215</v>
       </c>
       <c r="C15">
-        <v>7.196086139804253</v>
+        <v>8.455683816704665</v>
       </c>
       <c r="D15">
-        <v>9.088932921307579</v>
+        <v>6.545577322318992</v>
       </c>
       <c r="E15">
-        <v>8.456669392471309</v>
+        <v>11.7497752321958</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.17334752531787</v>
+        <v>30.83392375059937</v>
       </c>
       <c r="H15">
-        <v>8.955911419685137</v>
+        <v>14.71862371422054</v>
       </c>
       <c r="I15">
-        <v>14.33759283048563</v>
+        <v>22.89958003211757</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.15029338869095</v>
+        <v>9.861256802183391</v>
       </c>
       <c r="L15">
-        <v>7.847452802374262</v>
+        <v>9.806445781939022</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.40083650640349</v>
+        <v>18.61435046191714</v>
       </c>
       <c r="O15">
-        <v>15.20735683148692</v>
+        <v>22.70273167340874</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.14139219021929</v>
+        <v>12.72771985157871</v>
       </c>
       <c r="C16">
-        <v>7.129073886225812</v>
+        <v>8.436868987366996</v>
       </c>
       <c r="D16">
-        <v>8.788284428823003</v>
+        <v>6.454402989858339</v>
       </c>
       <c r="E16">
-        <v>8.344756452879249</v>
+        <v>11.74765155784395</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.77997597979729</v>
+        <v>30.82703500734811</v>
       </c>
       <c r="H16">
-        <v>8.958156639884548</v>
+        <v>14.74072473411018</v>
       </c>
       <c r="I16">
-        <v>14.34627315704209</v>
+        <v>22.94119992300836</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.74402883395347</v>
+        <v>9.720328606759342</v>
       </c>
       <c r="L16">
-        <v>7.689021226338594</v>
+        <v>9.78673380318379</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.53087366137177</v>
+        <v>18.65004286460148</v>
       </c>
       <c r="O16">
-        <v>15.12182971948962</v>
+        <v>22.73038918408362</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.78411726742224</v>
+        <v>12.60586036863313</v>
       </c>
       <c r="C17">
-        <v>7.087729390089194</v>
+        <v>8.425278878558958</v>
       </c>
       <c r="D17">
-        <v>8.599481656809315</v>
+        <v>6.398236465955794</v>
       </c>
       <c r="E17">
-        <v>8.27685129001871</v>
+        <v>11.74690773160307</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.5439079841914</v>
+        <v>30.8251749068171</v>
       </c>
       <c r="H17">
-        <v>8.961310829483853</v>
+        <v>14.75486409288014</v>
       </c>
       <c r="I17">
-        <v>14.35522340795721</v>
+        <v>22.96781971402124</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.48900492179211</v>
+        <v>9.633129589263586</v>
       </c>
       <c r="L17">
-        <v>7.591298369874816</v>
+        <v>9.775058194686819</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.61118818081906</v>
+        <v>18.67236242642489</v>
       </c>
       <c r="O17">
-        <v>15.07311632000412</v>
+        <v>22.74855921058457</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.57537261317964</v>
+        <v>12.53538967142406</v>
       </c>
       <c r="C18">
-        <v>7.063865787814784</v>
+        <v>8.418595534658452</v>
       </c>
       <c r="D18">
-        <v>8.489273312858289</v>
+        <v>6.36585804761576</v>
       </c>
       <c r="E18">
-        <v>8.2380783677766</v>
+        <v>11.74668574139528</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.41007455742307</v>
+        <v>30.82497472014985</v>
       </c>
       <c r="H18">
-        <v>8.963762304988233</v>
+        <v>14.76321022738555</v>
       </c>
       <c r="I18">
-        <v>14.36166741558125</v>
+        <v>22.98353004546935</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.34019240425388</v>
+        <v>9.582719049343948</v>
       </c>
       <c r="L18">
-        <v>7.534912097943685</v>
+        <v>9.768497404576886</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.65758875903311</v>
+        <v>18.68535598868713</v>
       </c>
       <c r="O18">
-        <v>15.04645365019952</v>
+        <v>22.7594518769939</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.50413568187316</v>
+        <v>12.51146662973397</v>
       </c>
       <c r="C19">
-        <v>7.055771951779452</v>
+        <v>8.416329798498351</v>
       </c>
       <c r="D19">
-        <v>8.451680520236369</v>
+        <v>6.354884013273137</v>
       </c>
       <c r="E19">
-        <v>8.225000195508994</v>
+        <v>11.74664596972531</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.36509667731082</v>
+        <v>30.82505631847307</v>
       </c>
       <c r="H19">
-        <v>8.964700305846161</v>
+        <v>14.7660727620661</v>
       </c>
       <c r="I19">
-        <v>14.36406843538532</v>
+        <v>22.98891785444026</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.28944134535996</v>
+        <v>9.565608644265133</v>
       </c>
       <c r="L19">
-        <v>7.515791596123761</v>
+        <v>9.766302739577476</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.67333519348991</v>
+        <v>18.68978220017681</v>
       </c>
       <c r="O19">
-        <v>15.03765670895776</v>
+        <v>22.76321578102312</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.82248576239697</v>
+        <v>12.61887246130485</v>
       </c>
       <c r="C20">
-        <v>7.092139274674645</v>
+        <v>8.42651443939355</v>
       </c>
       <c r="D20">
-        <v>8.619746851753851</v>
+        <v>6.404223334546305</v>
       </c>
       <c r="E20">
-        <v>8.284050682447761</v>
+        <v>11.74696561863506</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.56883671222265</v>
+        <v>30.82528291025134</v>
       </c>
       <c r="H20">
-        <v>8.960908753559877</v>
+        <v>14.75333683236442</v>
       </c>
       <c r="I20">
-        <v>14.35413568918807</v>
+        <v>22.96494465656825</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.51637305482533</v>
+        <v>9.642438967329953</v>
       </c>
       <c r="L20">
-        <v>7.601720003991469</v>
+        <v>9.776285103189963</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.6026174201297</v>
+        <v>18.66997033919628</v>
       </c>
       <c r="O20">
-        <v>15.07816105835911</v>
+        <v>22.74657925248322</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.85338248837781</v>
+        <v>12.97502137542299</v>
       </c>
       <c r="C21">
-        <v>7.213312573668694</v>
+        <v>8.460526199041039</v>
       </c>
       <c r="D21">
-        <v>9.165213298900236</v>
+        <v>6.569033954178124</v>
       </c>
       <c r="E21">
-        <v>8.485787836005903</v>
+        <v>11.7504959793892</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.27651853256222</v>
+        <v>30.83643342480626</v>
       </c>
       <c r="H21">
-        <v>8.955893978039299</v>
+        <v>14.71309731907429</v>
       </c>
       <c r="I21">
-        <v>14.33650215936992</v>
+        <v>22.88917096604851</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.25339263679911</v>
+        <v>9.89739774831466</v>
       </c>
       <c r="L21">
-        <v>7.888180263870494</v>
+        <v>9.811662756966607</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.36742488150434</v>
+        <v>18.60526602299642</v>
       </c>
       <c r="O21">
-        <v>15.23061806462539</v>
+        <v>22.6959632628472</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.49852953139857</v>
+        <v>13.2038780948888</v>
       </c>
       <c r="C22">
-        <v>7.291704874814616</v>
+        <v>8.482591500719089</v>
       </c>
       <c r="D22">
-        <v>9.507548996667857</v>
+        <v>6.675825367335031</v>
       </c>
       <c r="E22">
-        <v>8.619982065081782</v>
+        <v>11.75462696812131</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.75600928715401</v>
+        <v>30.85145764147685</v>
       </c>
       <c r="H22">
-        <v>8.958627380657651</v>
+        <v>14.68870013223985</v>
       </c>
       <c r="I22">
-        <v>14.33729124053401</v>
+        <v>22.84320997084465</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.71613660979988</v>
+        <v>10.0613858361907</v>
       </c>
       <c r="L22">
-        <v>8.073479210232412</v>
+        <v>9.836130428226312</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.21539401981949</v>
+        <v>18.56435961936377</v>
       </c>
       <c r="O22">
-        <v>15.34282885659646</v>
+        <v>22.66682390925974</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.15680324808444</v>
+        <v>13.08211450795984</v>
       </c>
       <c r="C23">
-        <v>7.249941454705752</v>
+        <v>8.470830352688562</v>
       </c>
       <c r="D23">
-        <v>9.326122923410399</v>
+        <v>6.61892586933483</v>
       </c>
       <c r="E23">
-        <v>8.548154045599608</v>
+        <v>11.75225579882844</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.49856011948431</v>
+        <v>30.84273165007086</v>
       </c>
       <c r="H23">
-        <v>8.956602060018382</v>
+        <v>14.70154736855202</v>
       </c>
       <c r="I23">
-        <v>14.33570570649903</v>
+        <v>22.86741408042758</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.47089224975512</v>
+        <v>9.974120904358633</v>
       </c>
       <c r="L23">
-        <v>7.974771928384351</v>
+        <v>9.822949951788958</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.29638950425427</v>
+        <v>18.5860660575869</v>
       </c>
       <c r="O23">
-        <v>15.28176638874013</v>
+        <v>22.68201518804273</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.80514978075693</v>
+        <v>12.61299097173132</v>
       </c>
       <c r="C24">
-        <v>7.090145858273431</v>
+        <v>8.4259559046258</v>
       </c>
       <c r="D24">
-        <v>8.610590139705339</v>
+        <v>6.401516940827739</v>
       </c>
       <c r="E24">
-        <v>8.280795004468713</v>
+        <v>11.74693880725519</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.55756055841308</v>
+        <v>30.82523137432261</v>
       </c>
       <c r="H24">
-        <v>8.961088548280349</v>
+        <v>14.75402663018635</v>
       </c>
       <c r="I24">
-        <v>14.35462341118004</v>
+        <v>22.96624320463171</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.50400676161624</v>
+        <v>9.638231061342555</v>
       </c>
       <c r="L24">
-        <v>7.597009015118307</v>
+        <v>9.775729945075129</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.60649155329631</v>
+        <v>18.67105129790936</v>
       </c>
       <c r="O24">
-        <v>15.07587615365224</v>
+        <v>22.74747300088032</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.22274555619806</v>
+        <v>12.09278722557736</v>
       </c>
       <c r="C25">
-        <v>6.914636728983034</v>
+        <v>8.37690757309257</v>
       </c>
       <c r="D25">
-        <v>7.776945126124957</v>
+        <v>6.164400315822864</v>
       </c>
       <c r="E25">
-        <v>8.003388028335511</v>
+        <v>11.7490767528817</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.61710978670583</v>
+        <v>30.83959645641878</v>
       </c>
       <c r="H25">
-        <v>8.990102001087585</v>
+        <v>14.81879836920814</v>
       </c>
       <c r="I25">
-        <v>14.42413902218707</v>
+        <v>23.08811033816308</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.37970178013778</v>
+        <v>9.266382867891563</v>
       </c>
       <c r="L25">
-        <v>7.182955491257653</v>
+        <v>9.730726065339297</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.94893500601325</v>
+        <v>18.76868807042954</v>
       </c>
       <c r="O25">
-        <v>14.90529387936229</v>
+        <v>22.83496291243497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.7006386158531</v>
+        <v>13.94867863207451</v>
       </c>
       <c r="C2">
-        <v>8.340294232042817</v>
+        <v>6.783044461620196</v>
       </c>
       <c r="D2">
-        <v>5.9891267849217</v>
+        <v>7.108739831732411</v>
       </c>
       <c r="E2">
-        <v>11.75745654196906</v>
+        <v>7.809531927805642</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>30.87871174095526</v>
+        <v>22.99003785011973</v>
       </c>
       <c r="H2">
-        <v>14.8735168670438</v>
+        <v>9.030492552567488</v>
       </c>
       <c r="I2">
-        <v>23.19094960242855</v>
+        <v>14.51348971970654</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.986505646251979</v>
+        <v>11.48208789531318</v>
       </c>
       <c r="L2">
-        <v>9.702830934424288</v>
+        <v>6.874519932225151</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.84576132690876</v>
+        <v>12.20872152626026</v>
       </c>
       <c r="O2">
-        <v>22.91385794775655</v>
+        <v>14.82098946971425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.43091471675098</v>
+        <v>13.01632587109576</v>
       </c>
       <c r="C3">
-        <v>8.315197352539222</v>
+        <v>6.692581239401541</v>
       </c>
       <c r="D3">
-        <v>5.870759932971582</v>
+        <v>6.62136162856498</v>
       </c>
       <c r="E3">
-        <v>11.76739344145968</v>
+        <v>7.685105186752178</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>30.92296222525393</v>
+        <v>22.60610465617149</v>
       </c>
       <c r="H3">
-        <v>14.91498636462818</v>
+        <v>9.068877446539318</v>
       </c>
       <c r="I3">
-        <v>23.26881224354763</v>
+        <v>14.59586698392356</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.794213910399924</v>
+        <v>10.83062305609437</v>
       </c>
       <c r="L3">
-        <v>9.687258614054372</v>
+        <v>6.664513813049116</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.90125447841793</v>
+        <v>12.38993097670699</v>
       </c>
       <c r="O3">
-        <v>22.97633073891756</v>
+        <v>14.78797661602007</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.26397855627403</v>
+        <v>12.40956692085666</v>
       </c>
       <c r="C4">
-        <v>8.299657318748668</v>
+        <v>6.636475110123458</v>
       </c>
       <c r="D4">
-        <v>5.798584840299852</v>
+        <v>6.30488456865248</v>
       </c>
       <c r="E4">
-        <v>11.77559790420314</v>
+        <v>7.612279057372288</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>30.95885408212909</v>
+        <v>22.39054677935122</v>
       </c>
       <c r="H4">
-        <v>14.94261315025032</v>
+        <v>9.097601701850468</v>
       </c>
       <c r="I4">
-        <v>23.32064544615681</v>
+        <v>14.65657382454383</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.675281148054639</v>
+        <v>10.4095897327543</v>
       </c>
       <c r="L4">
-        <v>9.67935985169875</v>
+        <v>6.535560198848607</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.93694398931173</v>
+        <v>12.50385231992696</v>
       </c>
       <c r="O4">
-        <v>23.01912160866911</v>
+        <v>14.77902683048942</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.19571755271736</v>
+        <v>12.15364239151742</v>
       </c>
       <c r="C5">
-        <v>8.293293340688134</v>
+        <v>6.61348170914084</v>
       </c>
       <c r="D5">
-        <v>5.769345170151404</v>
+        <v>6.188213631519117</v>
       </c>
       <c r="E5">
-        <v>11.77947054632231</v>
+        <v>7.5835201806615</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.97566849174305</v>
+        <v>22.30775248012705</v>
       </c>
       <c r="H5">
-        <v>14.95441562731341</v>
+        <v>9.11056357462456</v>
       </c>
       <c r="I5">
-        <v>23.34277950874846</v>
+        <v>14.68376660794712</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.626664851358299</v>
+        <v>10.23278102689682</v>
       </c>
       <c r="L5">
-        <v>9.676561880412844</v>
+        <v>6.483084931414941</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.95189539108377</v>
+        <v>12.55096088485938</v>
       </c>
       <c r="O5">
-        <v>23.03767232831805</v>
+        <v>14.77813777189505</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.18437177540368</v>
+        <v>12.11062172338275</v>
       </c>
       <c r="C6">
-        <v>8.292234761217152</v>
+        <v>6.609656180518492</v>
       </c>
       <c r="D6">
-        <v>5.764501699471739</v>
+        <v>6.169225172220322</v>
       </c>
       <c r="E6">
-        <v>11.78014556998212</v>
+        <v>7.578800793229183</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.97859250656786</v>
+        <v>22.29430820447992</v>
       </c>
       <c r="H6">
-        <v>14.95640829899304</v>
+        <v>9.112790624961571</v>
       </c>
       <c r="I6">
-        <v>23.34651593520854</v>
+        <v>14.688427534099</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.618585086028379</v>
+        <v>10.20310785612573</v>
       </c>
       <c r="L6">
-        <v>9.676122771322586</v>
+        <v>6.474378261466208</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.95440271423846</v>
+        <v>12.558825045911</v>
       </c>
       <c r="O6">
-        <v>23.04081984482998</v>
+        <v>14.77815408536223</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.26305877380682</v>
+        <v>12.40615057482404</v>
       </c>
       <c r="C7">
-        <v>8.299571616607988</v>
+        <v>6.636165522832041</v>
       </c>
       <c r="D7">
-        <v>5.798189745405089</v>
+        <v>6.303104174046966</v>
       </c>
       <c r="E7">
-        <v>11.77564798865148</v>
+        <v>7.611887462064877</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>30.95907199462999</v>
+        <v>22.38940980075701</v>
       </c>
       <c r="H7">
-        <v>14.94277011846209</v>
+        <v>9.097771474683606</v>
       </c>
       <c r="I7">
-        <v>23.32093985864259</v>
+        <v>14.65693073865002</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.674626009516222</v>
+        <v>10.40722633812483</v>
       </c>
       <c r="L7">
-        <v>9.679320409916329</v>
+        <v>6.53485209370333</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.93714397710656</v>
+        <v>12.50448484903879</v>
       </c>
       <c r="O7">
-        <v>23.01936728529083</v>
+        <v>14.7790037919383</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.60797147523968</v>
+        <v>13.63429437443737</v>
       </c>
       <c r="C8">
-        <v>8.331668811230553</v>
+        <v>6.751975996250187</v>
       </c>
       <c r="D8">
-        <v>5.948236916065658</v>
+        <v>6.944250084078315</v>
       </c>
       <c r="E8">
-        <v>11.76044655623731</v>
+        <v>7.765900904498152</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>30.89215637659805</v>
+        <v>22.85345967319189</v>
       </c>
       <c r="H8">
-        <v>14.88736639969891</v>
+        <v>9.042633232811495</v>
       </c>
       <c r="I8">
-        <v>23.21696087157572</v>
+        <v>14.53973528441049</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.920422599266638</v>
+        <v>11.26185549095412</v>
       </c>
       <c r="L8">
-        <v>9.697118230639921</v>
+        <v>6.802156368056313</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.86456056176256</v>
+        <v>12.27066090763576</v>
       </c>
       <c r="O8">
-        <v>22.93447779526555</v>
+        <v>14.80720473501471</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.26965339889408</v>
+        <v>15.77257780881377</v>
       </c>
       <c r="C9">
-        <v>8.393510830486179</v>
+        <v>6.974148986162844</v>
       </c>
       <c r="D9">
-        <v>6.244488320291051</v>
+        <v>8.066129235948971</v>
       </c>
       <c r="E9">
-        <v>11.74730142001939</v>
+        <v>8.095281751390683</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>30.83031891511558</v>
+        <v>23.92381251034156</v>
       </c>
       <c r="H9">
-        <v>14.79588863267688</v>
+        <v>8.977256685438238</v>
       </c>
       <c r="I9">
-        <v>23.04502154973446</v>
+        <v>14.39452480608395</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.392735119657925</v>
+        <v>12.76929590600811</v>
       </c>
       <c r="L9">
-        <v>9.745080545691508</v>
+        <v>7.323136883539143</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.73499720461352</v>
+        <v>11.83244685646771</v>
       </c>
       <c r="O9">
-        <v>22.80323985687293</v>
+        <v>14.95613123276805</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.7415714852155</v>
+        <v>17.18172054054128</v>
       </c>
       <c r="C10">
-        <v>8.438189153087565</v>
+        <v>7.133780075226742</v>
       </c>
       <c r="D10">
-        <v>6.460801144082301</v>
+        <v>8.809610159302313</v>
       </c>
       <c r="E10">
-        <v>11.74776429599195</v>
+        <v>8.352542793741415</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.82736509242218</v>
+        <v>24.80717559546357</v>
       </c>
       <c r="H10">
-        <v>14.73914027173402</v>
+        <v>8.957884210882911</v>
       </c>
       <c r="I10">
-        <v>22.93821654930768</v>
+        <v>14.34543010503266</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.730242655210217</v>
+        <v>13.77284027956089</v>
       </c>
       <c r="L10">
-        <v>9.788086931486466</v>
+        <v>7.700146677360332</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.64751715365927</v>
+        <v>11.5217365984426</v>
       </c>
       <c r="O10">
-        <v>22.72837574286922</v>
+        <v>15.12757374271045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.95216331032422</v>
+        <v>17.7882542473585</v>
       </c>
       <c r="C11">
-        <v>8.458331620281868</v>
+        <v>7.205506543619652</v>
       </c>
       <c r="D11">
-        <v>6.558404039975946</v>
+        <v>9.130696432183635</v>
       </c>
       <c r="E11">
-        <v>11.75016076903521</v>
+        <v>8.472575894764313</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.8352597689276</v>
+        <v>25.22966636631192</v>
       </c>
       <c r="H11">
-        <v>14.71559394584745</v>
+        <v>8.95587389794883</v>
       </c>
       <c r="I11">
-        <v>22.89387350042121</v>
+        <v>14.33693926093189</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.881025289515051</v>
+        <v>14.2067394294563</v>
       </c>
       <c r="L11">
-        <v>9.809291359814043</v>
+        <v>7.869725104732733</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.6093781367258</v>
+        <v>11.38256461828073</v>
       </c>
       <c r="O11">
-        <v>22.69901351019997</v>
+        <v>15.22001389237908</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.03124498814834</v>
+        <v>18.01302406197569</v>
       </c>
       <c r="C12">
-        <v>8.465931249087234</v>
+        <v>7.232530895690335</v>
       </c>
       <c r="D12">
-        <v>6.595208915411497</v>
+        <v>9.249853227526723</v>
       </c>
       <c r="E12">
-        <v>11.75138126735626</v>
+        <v>8.518434587955035</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.83957686900298</v>
+        <v>25.39257195637331</v>
       </c>
       <c r="H12">
-        <v>14.70700371862657</v>
+        <v>8.956139852097298</v>
       </c>
       <c r="I12">
-        <v>22.87769270826325</v>
+        <v>14.33582735348308</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.937673932358209</v>
+        <v>14.36779714946501</v>
       </c>
       <c r="L12">
-        <v>9.817552390301119</v>
+        <v>7.933614623937385</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.59517283211611</v>
+        <v>11.33015351248141</v>
       </c>
       <c r="O12">
-        <v>22.68857074954945</v>
+        <v>15.2571704134355</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.01424407368958</v>
+        <v>17.96483350609849</v>
       </c>
       <c r="C13">
-        <v>8.464295800872989</v>
+        <v>7.226716938375169</v>
       </c>
       <c r="D13">
-        <v>6.587289848848369</v>
+        <v>9.224298319742992</v>
       </c>
       <c r="E13">
-        <v>11.75110451323655</v>
+        <v>8.508540519966804</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.83858808863118</v>
+        <v>25.35735841983928</v>
       </c>
       <c r="H13">
-        <v>14.70883926747439</v>
+        <v>8.956036096878348</v>
       </c>
       <c r="I13">
-        <v>22.88115034618544</v>
+        <v>14.33597145960305</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.925494441856474</v>
+        <v>14.3332549532455</v>
       </c>
       <c r="L13">
-        <v>9.815763014353433</v>
+        <v>7.919870095188259</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.59822166925405</v>
+        <v>11.34142863305657</v>
       </c>
       <c r="O13">
-        <v>22.6907896999118</v>
+        <v>15.24907128098529</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.95868315485247</v>
+        <v>17.80684434286127</v>
       </c>
       <c r="C14">
-        <v>8.458957415116373</v>
+        <v>7.207732644682024</v>
       </c>
       <c r="D14">
-        <v>6.561435333179856</v>
+        <v>9.140548084635508</v>
       </c>
       <c r="E14">
-        <v>11.75025491530291</v>
+        <v>8.476340757839006</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.8355883427932</v>
+        <v>25.24301054275391</v>
       </c>
       <c r="H14">
-        <v>14.71488068404156</v>
+        <v>8.955874906745095</v>
       </c>
       <c r="I14">
-        <v>22.89253004784301</v>
+        <v>14.33680497633397</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.885695110766934</v>
+        <v>14.22005485495294</v>
       </c>
       <c r="L14">
-        <v>9.809966389664657</v>
+        <v>7.87498813004278</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.60820471152955</v>
+        <v>11.37824703701149</v>
       </c>
       <c r="O14">
-        <v>22.69814082249752</v>
+        <v>15.2230272578008</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.92456170592215</v>
+        <v>17.70943328170289</v>
       </c>
       <c r="C15">
-        <v>8.455683816704665</v>
+        <v>7.196086139804484</v>
       </c>
       <c r="D15">
-        <v>6.545577322318992</v>
+        <v>9.08893292130748</v>
       </c>
       <c r="E15">
-        <v>11.7497752321958</v>
+        <v>8.456669392471412</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.83392375059937</v>
+        <v>25.17334752531778</v>
       </c>
       <c r="H15">
-        <v>14.71862371422054</v>
+        <v>8.955911419685137</v>
       </c>
       <c r="I15">
-        <v>22.89958003211757</v>
+        <v>14.33759283048562</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.861256802183391</v>
+        <v>14.15029338869098</v>
       </c>
       <c r="L15">
-        <v>9.806445781939022</v>
+        <v>7.847452802374288</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.61435046191714</v>
+        <v>11.40083650640343</v>
       </c>
       <c r="O15">
-        <v>22.70273167340874</v>
+        <v>15.20735683148684</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.72771985157871</v>
+        <v>17.1413921902193</v>
       </c>
       <c r="C16">
-        <v>8.436868987366996</v>
+        <v>7.129073886225679</v>
       </c>
       <c r="D16">
-        <v>6.454402989858339</v>
+        <v>8.788284428823069</v>
       </c>
       <c r="E16">
-        <v>11.74765155784395</v>
+        <v>8.344756452879293</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>30.82703500734811</v>
+        <v>24.77997597979735</v>
       </c>
       <c r="H16">
-        <v>14.74072473411018</v>
+        <v>8.958156639884558</v>
       </c>
       <c r="I16">
-        <v>22.94119992300836</v>
+        <v>14.34627315704212</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.720328606759342</v>
+        <v>13.74402883395348</v>
       </c>
       <c r="L16">
-        <v>9.78673380318379</v>
+        <v>7.689021226338591</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.65004286460148</v>
+        <v>11.5308736613718</v>
       </c>
       <c r="O16">
-        <v>22.73038918408362</v>
+        <v>15.12182971948964</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.60586036863313</v>
+        <v>16.78411726742224</v>
       </c>
       <c r="C17">
-        <v>8.425278878558958</v>
+        <v>7.087729390089061</v>
       </c>
       <c r="D17">
-        <v>6.398236465955794</v>
+        <v>8.599481656809301</v>
       </c>
       <c r="E17">
-        <v>11.74690773160307</v>
+        <v>8.276851290018715</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>30.8251749068171</v>
+        <v>24.54390798419147</v>
       </c>
       <c r="H17">
-        <v>14.75486409288014</v>
+        <v>8.961310829483903</v>
       </c>
       <c r="I17">
-        <v>22.96781971402124</v>
+        <v>14.35522340795726</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.633129589263586</v>
+        <v>13.48900492179211</v>
       </c>
       <c r="L17">
-        <v>9.775058194686819</v>
+        <v>7.59129836987481</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.67236242642489</v>
+        <v>11.6111881808191</v>
       </c>
       <c r="O17">
-        <v>22.74855921058457</v>
+        <v>15.07311632000415</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.53538967142406</v>
+        <v>16.57537261317966</v>
       </c>
       <c r="C18">
-        <v>8.418595534658452</v>
+        <v>7.063865787814651</v>
       </c>
       <c r="D18">
-        <v>6.36585804761576</v>
+        <v>8.489273312858311</v>
       </c>
       <c r="E18">
-        <v>11.74668574139528</v>
+        <v>8.238078367776485</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>30.82497472014985</v>
+        <v>24.41007455742316</v>
       </c>
       <c r="H18">
-        <v>14.76321022738555</v>
+        <v>8.963762304988247</v>
       </c>
       <c r="I18">
-        <v>22.98353004546935</v>
+        <v>14.36166741558124</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.582719049343948</v>
+        <v>13.34019240425385</v>
       </c>
       <c r="L18">
-        <v>9.768497404576886</v>
+        <v>7.534912097943611</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.68535598868713</v>
+        <v>11.65758875903303</v>
       </c>
       <c r="O18">
-        <v>22.7594518769939</v>
+        <v>15.04645365019958</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.51146662973397</v>
+        <v>16.5041356818732</v>
       </c>
       <c r="C19">
-        <v>8.416329798498351</v>
+        <v>7.055771951779434</v>
       </c>
       <c r="D19">
-        <v>6.354884013273137</v>
+        <v>8.451680520236341</v>
       </c>
       <c r="E19">
-        <v>11.74664596972531</v>
+        <v>8.225000195509033</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30.82505631847307</v>
+        <v>24.36509667731077</v>
       </c>
       <c r="H19">
-        <v>14.7660727620661</v>
+        <v>8.964700305846161</v>
       </c>
       <c r="I19">
-        <v>22.98891785444026</v>
+        <v>14.36406843538528</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.565608644265133</v>
+        <v>13.28944134535999</v>
       </c>
       <c r="L19">
-        <v>9.766302739577476</v>
+        <v>7.515791596123771</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.68978220017681</v>
+        <v>11.67333519348991</v>
       </c>
       <c r="O19">
-        <v>22.76321578102312</v>
+        <v>15.03765670895773</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.61887246130485</v>
+        <v>16.822485762397</v>
       </c>
       <c r="C20">
-        <v>8.42651443939355</v>
+        <v>7.092139274674501</v>
       </c>
       <c r="D20">
-        <v>6.404223334546305</v>
+        <v>8.619746851753888</v>
       </c>
       <c r="E20">
-        <v>11.74696561863506</v>
+        <v>8.284050682447768</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>30.82528291025134</v>
+        <v>24.56883671222268</v>
       </c>
       <c r="H20">
-        <v>14.75333683236442</v>
+        <v>8.960908753559885</v>
       </c>
       <c r="I20">
-        <v>22.96494465656825</v>
+        <v>14.3541356891881</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.642438967329953</v>
+        <v>13.51637305482534</v>
       </c>
       <c r="L20">
-        <v>9.776285103189963</v>
+        <v>7.601720003991466</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.66997033919628</v>
+        <v>11.60261742012974</v>
       </c>
       <c r="O20">
-        <v>22.74657925248322</v>
+        <v>15.07816105835912</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.97502137542299</v>
+        <v>17.85338248837778</v>
       </c>
       <c r="C21">
-        <v>8.460526199041039</v>
+        <v>7.213312573668916</v>
       </c>
       <c r="D21">
-        <v>6.569033954178124</v>
+        <v>9.165213298900262</v>
       </c>
       <c r="E21">
-        <v>11.7504959793892</v>
+        <v>8.485787836005946</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.83643342480626</v>
+        <v>25.27651853256219</v>
       </c>
       <c r="H21">
-        <v>14.71309731907429</v>
+        <v>8.955893978039342</v>
       </c>
       <c r="I21">
-        <v>22.88917096604851</v>
+        <v>14.33650215937002</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.89739774831466</v>
+        <v>14.25339263679912</v>
       </c>
       <c r="L21">
-        <v>9.811662756966607</v>
+        <v>7.888180263870495</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.60526602299642</v>
+        <v>11.3674248815044</v>
       </c>
       <c r="O21">
-        <v>22.6959632628472</v>
+        <v>15.23061806462539</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.2038780948888</v>
+        <v>18.49852953139855</v>
       </c>
       <c r="C22">
-        <v>8.482591500719089</v>
+        <v>7.291704874814845</v>
       </c>
       <c r="D22">
-        <v>6.675825367335031</v>
+        <v>9.507548996667824</v>
       </c>
       <c r="E22">
-        <v>11.75462696812131</v>
+        <v>8.619982065081858</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.85145764147685</v>
+        <v>25.7560092871539</v>
       </c>
       <c r="H22">
-        <v>14.68870013223985</v>
+        <v>8.958627380657646</v>
       </c>
       <c r="I22">
-        <v>22.84320997084465</v>
+        <v>14.33729124053403</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.0613858361907</v>
+        <v>14.71613660979991</v>
       </c>
       <c r="L22">
-        <v>9.836130428226312</v>
+        <v>8.073479210232431</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.56435961936377</v>
+        <v>11.21539401981949</v>
       </c>
       <c r="O22">
-        <v>22.66682390925974</v>
+        <v>15.34282885659644</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.08211450795984</v>
+        <v>18.15680324808437</v>
       </c>
       <c r="C23">
-        <v>8.470830352688562</v>
+        <v>7.249941454705964</v>
       </c>
       <c r="D23">
-        <v>6.61892586933483</v>
+        <v>9.326122923410384</v>
       </c>
       <c r="E23">
-        <v>11.75225579882844</v>
+        <v>8.548154045599619</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.84273165007086</v>
+        <v>25.49856011948449</v>
       </c>
       <c r="H23">
-        <v>14.70154736855202</v>
+        <v>8.956602060018518</v>
       </c>
       <c r="I23">
-        <v>22.86741408042758</v>
+        <v>14.3357057064993</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.974120904358633</v>
+        <v>14.47089224975505</v>
       </c>
       <c r="L23">
-        <v>9.822949951788958</v>
+        <v>7.974771928384334</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.5860660575869</v>
+        <v>11.29638950425444</v>
       </c>
       <c r="O23">
-        <v>22.68201518804273</v>
+        <v>15.28176638874031</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.61299097173132</v>
+        <v>16.80514978075692</v>
       </c>
       <c r="C24">
-        <v>8.4259559046258</v>
+        <v>7.090145858273924</v>
       </c>
       <c r="D24">
-        <v>6.401516940827739</v>
+        <v>8.610590139705275</v>
       </c>
       <c r="E24">
-        <v>11.74693880725519</v>
+        <v>8.28079500446878</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>30.82523137432261</v>
+        <v>24.5575605584128</v>
       </c>
       <c r="H24">
-        <v>14.75402663018635</v>
+        <v>8.961088548280349</v>
       </c>
       <c r="I24">
-        <v>22.96624320463171</v>
+        <v>14.35462341118001</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.638231061342555</v>
+        <v>13.50400676161632</v>
       </c>
       <c r="L24">
-        <v>9.775729945075129</v>
+        <v>7.597009015118279</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.67105129790936</v>
+        <v>11.60649155329628</v>
       </c>
       <c r="O24">
-        <v>22.74747300088032</v>
+        <v>15.07587615365212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.09278722557736</v>
+        <v>15.22274555619805</v>
       </c>
       <c r="C25">
-        <v>8.37690757309257</v>
+        <v>6.914636728983385</v>
       </c>
       <c r="D25">
-        <v>6.164400315822864</v>
+        <v>7.776945126124851</v>
       </c>
       <c r="E25">
-        <v>11.7490767528817</v>
+        <v>8.003388028335621</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>30.83959645641878</v>
+        <v>23.61710978670592</v>
       </c>
       <c r="H25">
-        <v>14.81879836920814</v>
+        <v>8.990102001087591</v>
       </c>
       <c r="I25">
-        <v>23.08811033816308</v>
+        <v>14.42413902218717</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.266382867891563</v>
+        <v>12.37970178013777</v>
       </c>
       <c r="L25">
-        <v>9.730726065339297</v>
+        <v>7.182955491257613</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.76868807042954</v>
+        <v>11.94893500601331</v>
       </c>
       <c r="O25">
-        <v>22.83496291243497</v>
+        <v>14.90529387936234</v>
       </c>
     </row>
   </sheetData>
